--- a/Moblie_RichText/RichText.xlsx
+++ b/Moblie_RichText/RichText.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="380" windowWidth="25880" windowHeight="16920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5600" yWindow="0" windowWidth="25880" windowHeight="16920" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,109 +19,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首行缩进</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <t>行间距</t>
+  </si>
+  <si>
+    <t>line-height</t>
+  </si>
+  <si>
+    <t>字间距</t>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+  </si>
+  <si>
+    <t>居左/中/右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-align</t>
+  </si>
+  <si>
+    <t>firstLineHeadIndent</t>
+  </si>
+  <si>
+    <t>lineSpacing</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>NSKern</t>
+  </si>
+  <si>
+    <t>NSFont</t>
+  </si>
+  <si>
+    <t>字体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSColor</t>
+  </si>
+  <si>
+    <t>字体颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
   <si>
     <t>原生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首行缩进</t>
-  </si>
-  <si>
-    <t>text-indent</t>
-  </si>
-  <si>
-    <t>行间距</t>
-  </si>
-  <si>
-    <t>line-height</t>
-  </si>
-  <si>
-    <t>字间距</t>
-  </si>
-  <si>
-    <t>letter-spacing</t>
-  </si>
-  <si>
-    <t>居左/中/右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-align</t>
-  </si>
-  <si>
-    <t>firstLineHeadIndent</t>
-  </si>
-  <si>
-    <t>lineSpacing</t>
-  </si>
-  <si>
-    <t>alignment</t>
-  </si>
-  <si>
-    <t>NSKern</t>
-  </si>
-  <si>
-    <t>NSFont</t>
-  </si>
-  <si>
-    <t>字体大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSColor</t>
-  </si>
-  <si>
-    <t>字体颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSObliqueness</t>
+    <t>含义/功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSParagraphStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>斜体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>font-size</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>原生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义/功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSParagraphStyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSParagraphStyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;</t>
+    <t>&lt;s&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;u&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSObliqueness(数值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSUnderlineColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSUnderline(数值-枚举)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSStrikethrough(数值-枚举)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂且不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,26 +252,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="67">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -258,6 +311,21 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -276,6 +344,21 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,238 +688,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Moblie_RichText/RichText.xlsx
+++ b/Moblie_RichText/RichText.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="0" windowWidth="25880" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="19560" yWindow="660" windowWidth="25880" windowHeight="16920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>

--- a/Moblie_RichText/RichText.xlsx
+++ b/Moblie_RichText/RichText.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="660" windowWidth="25880" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="6600" yWindow="1200" windowWidth="32820" windowHeight="17120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>HTML</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,8 +154,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>原生单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt(UI尺寸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>暂且不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
   </si>
 </sst>
 </file>
@@ -214,8 +229,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,7 +311,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="71">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -326,6 +345,8 @@
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -359,6 +380,8 @@
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,183 +711,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="32.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Moblie_RichText/RichText.xlsx
+++ b/Moblie_RichText/RichText.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="1200" windowWidth="32820" windowHeight="17120" tabRatio="500"/>
+    <workbookView xWindow="20140" yWindow="2260" windowWidth="32820" windowHeight="17120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pt(UI尺寸)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>px</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>支持</t>
+  </si>
+  <si>
+    <t>pt(UI尺寸,可为auto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -229,8 +229,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,7 +313,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -347,6 +349,7 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -382,6 +385,7 @@
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,7 +718,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,10 +768,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -783,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -802,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -817,10 +821,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -837,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -855,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -869,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -883,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -897,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -911,7 +915,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -921,7 +925,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
